--- a/deployment/Omaha_Cal_Info_GS02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GS02HYPM_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="615" yWindow="495" windowWidth="19200" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="615" yWindow="495" windowWidth="19200" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="71">
   <si>
     <t>Ref Des</t>
   </si>
@@ -1935,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2091,26 +2091,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="34.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2139,8 +2140,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -2168,8 +2169,19 @@
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <f>MATCH(A3,L:L,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="1">
+        <f>MATCH(L3,A:A,0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -2194,8 +2206,19 @@
       <c r="H4" s="13">
         <v>1.6479999999999999E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K50" si="0">MATCH(A4,L:L,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P16" si="1">MATCH(L4,A:A,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2220,8 +2243,19 @@
       <c r="H5" s="13">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -2246,8 +2280,19 @@
       <c r="H6" s="9">
         <v>7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -2275,8 +2320,19 @@
       <c r="I7" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
@@ -2304,8 +2360,19 @@
       <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -2333,8 +2400,19 @@
       <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
@@ -2362,13 +2440,35 @@
       <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2396,8 +2496,19 @@
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2422,13 +2533,35 @@
       <c r="H13" s="12">
         <v>-89.23999666666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K14" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2453,8 +2586,19 @@
       <c r="H15" s="12">
         <v>-54.470115</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -2479,13 +2623,28 @@
       <c r="H16" s="12">
         <v>-89.23999666666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2510,8 +2669,12 @@
       <c r="H18" s="12">
         <v>-54.470115</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2536,13 +2699,21 @@
       <c r="H19" s="12">
         <v>-89.23999666666667</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2570,8 +2741,12 @@
       <c r="I21" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
@@ -2596,8 +2771,12 @@
       <c r="H22" s="9">
         <v>1.6470000000000001E-6</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>43</v>
       </c>
@@ -2622,8 +2801,12 @@
       <c r="H23" s="9">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
@@ -2648,8 +2831,12 @@
       <c r="H24" s="9">
         <v>7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
@@ -2677,8 +2864,12 @@
       <c r="I25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -2706,8 +2897,12 @@
       <c r="I26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>43</v>
       </c>
@@ -2735,8 +2930,12 @@
       <c r="I27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -2764,13 +2963,21 @@
       <c r="I28" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2795,8 +3002,12 @@
       <c r="H30" s="12">
         <v>-54.470115</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>44</v>
       </c>
@@ -2821,13 +3032,21 @@
       <c r="H31" s="12">
         <v>-89.23999666666667</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2852,8 +3071,12 @@
       <c r="H33" s="12">
         <v>-54.470115</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
@@ -2878,13 +3101,21 @@
       <c r="H34" s="12">
         <v>-89.23999666666667</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K35" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -2909,8 +3140,12 @@
       <c r="H36" s="12">
         <v>-54.470115</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K36" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>46</v>
       </c>
@@ -2935,18 +3170,32 @@
       <c r="H37" s="12">
         <v>-89.23999666666667</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K38" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>32</v>
@@ -2956,18 +3205,32 @@
       <c r="I39" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K40" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>32</v>
@@ -2977,13 +3240,21 @@
       <c r="I41" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K42" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -3009,8 +3280,12 @@
         <v>1450</v>
       </c>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K43" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
@@ -3036,8 +3311,12 @@
         <v>-54.470115</v>
       </c>
       <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K44" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>49</v>
       </c>
@@ -3063,13 +3342,21 @@
         <v>-89.23999666666667</v>
       </c>
       <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K46" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
@@ -3091,8 +3378,12 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K47" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
@@ -3114,8 +3405,12 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K48" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -3137,18 +3432,26 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K49" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K50" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>

--- a/deployment/Omaha_Cal_Info_GS02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GS02HYPM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtravis\Desktop\Cal Sheet project\SO_cal_sheets_RT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="615" yWindow="495" windowWidth="19200" windowHeight="10560"/>
+    <workbookView xWindow="612" yWindow="492" windowWidth="19200" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="96">
   <si>
     <t>Ref Des</t>
   </si>
@@ -245,20 +245,96 @@
   </si>
   <si>
     <t>OL000037</t>
+  </si>
+  <si>
+    <t>Induction ID</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>CC_wbotc</t>
+  </si>
+  <si>
+    <t>CC_a0</t>
+  </si>
+  <si>
+    <t>CC_a1</t>
+  </si>
+  <si>
+    <t>CC_a2</t>
+  </si>
+  <si>
+    <t>CC_a3</t>
+  </si>
+  <si>
+    <t>CC_ptempa0</t>
+  </si>
+  <si>
+    <t>CC_ptempa1</t>
+  </si>
+  <si>
+    <t>CC_ptempa2</t>
+  </si>
+  <si>
+    <t>CC_ptca0</t>
+  </si>
+  <si>
+    <t>CC_ptca1</t>
+  </si>
+  <si>
+    <t>CC_ptca2</t>
+  </si>
+  <si>
+    <t>CC_ptcb0</t>
+  </si>
+  <si>
+    <t>CC_ptcb1</t>
+  </si>
+  <si>
+    <t>CC_ptcb2</t>
+  </si>
+  <si>
+    <t>CC_pa0</t>
+  </si>
+  <si>
+    <t>CC_pa1</t>
+  </si>
+  <si>
+    <t>CC_pa2</t>
+  </si>
+  <si>
+    <t>CC_g</t>
+  </si>
+  <si>
+    <t>CC_h</t>
+  </si>
+  <si>
+    <t>CC_i</t>
+  </si>
+  <si>
+    <t>CC_j</t>
+  </si>
+  <si>
+    <t>CC_cpcor</t>
+  </si>
+  <si>
+    <t>CC_ctcor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,11 +619,13 @@
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -560,21 +638,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -585,6 +667,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1236,7 +1324,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1343,6 +1431,36 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="36" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="49" fillId="36" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="49" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="50" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="269">
@@ -1935,30 +2053,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="33"/>
-    <col min="2" max="2" width="16.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="33" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="33" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="33"/>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="16.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" style="33" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" style="33" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>56</v>
       </c>
@@ -1996,7 +2114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="29" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="29" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -2032,48 +2150,48 @@
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
     </row>
-    <row r="3" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E3" s="30"/>
       <c r="F3" s="31"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:14" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:14" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:14" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:14" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:14" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E12" s="30"/>
       <c r="F12" s="31"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
@@ -2091,27 +2209,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="30.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2140,8 +2258,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -2178,10 +2296,10 @@
       </c>
       <c r="P3" s="1">
         <f>MATCH(L3,A:A,0)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -2207,18 +2325,18 @@
         <v>1.6479999999999999E-6</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K50" si="0">MATCH(A4,L:L,0)</f>
+        <f>MATCH(A4,L:L,0)</f>
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P16" si="1">MATCH(L4,A:A,0)</f>
+        <f>MATCH(L4,A:A,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -2244,18 +2362,18 @@
         <v>46</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A5,L:L,0)</f>
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="1"/>
+        <f>MATCH(L5,A:A,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -2281,18 +2399,18 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A6,L:L,0)</f>
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="1"/>
+        <f>MATCH(L6,A:A,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -2321,18 +2439,18 @@
         <v>24</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A7,L:L,0)</f>
         <v>4</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="1"/>
+        <f>MATCH(L7,A:A,0)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
@@ -2361,18 +2479,18 @@
         <v>25</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A8,L:L,0)</f>
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+        <f>MATCH(L8,A:A,0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -2401,18 +2519,18 @@
         <v>25</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A9,L:L,0)</f>
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="1"/>
+        <f>MATCH(L9,A:A,0)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
@@ -2441,34 +2559,34 @@
         <v>25</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A10,L:L,0)</f>
         <v>4</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="1"/>
+        <f>MATCH(L10,A:A,0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="K11" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A11,L:L,0)</f>
         <v>#N/A</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="1"/>
+        <f>MATCH(L11,A:A,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2497,18 +2615,18 @@
         <v>23</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A12,L:L,0)</f>
         <v>5</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+        <f>MATCH(L12,A:A,0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2534,34 +2652,34 @@
         <v>-89.23999666666667</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A13,L:L,0)</f>
         <v>5</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="1"/>
+        <f>MATCH(L13,A:A,0)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="K14" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A14,L:L,0)</f>
         <v>#N/A</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="1"/>
+        <f>MATCH(L14,A:A,0)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2587,18 +2705,18 @@
         <v>-54.470115</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A15,L:L,0)</f>
         <v>6</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="1"/>
+        <f>MATCH(L15,A:A,0)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
@@ -2624,27 +2742,27 @@
         <v>-89.23999666666667</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A16,L:L,0)</f>
         <v>6</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <f>MATCH(L16,A:A,0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="K17" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A17,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2670,11 +2788,11 @@
         <v>-54.470115</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A18,L:L,0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2700,20 +2818,20 @@
         <v>-89.23999666666667</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A19,L:L,0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="K20" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A20,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2742,11 +2860,11 @@
         <v>31</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A21,L:L,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
@@ -2772,11 +2890,11 @@
         <v>1.6470000000000001E-6</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A22,L:L,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>43</v>
       </c>
@@ -2802,11 +2920,11 @@
         <v>46</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A23,L:L,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
@@ -2832,11 +2950,11 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A24,L:L,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
@@ -2865,11 +2983,11 @@
         <v>25</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A25,L:L,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -2898,11 +3016,11 @@
         <v>25</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A26,L:L,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>43</v>
       </c>
@@ -2931,11 +3049,11 @@
         <v>25</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A27,L:L,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
@@ -2964,20 +3082,20 @@
         <v>25</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A28,L:L,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="K29" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A29,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -3003,11 +3121,11 @@
         <v>-54.470115</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A30,L:L,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>44</v>
       </c>
@@ -3033,20 +3151,20 @@
         <v>-89.23999666666667</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A31,L:L,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="K32" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A32,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -3072,11 +3190,11 @@
         <v>-54.470115</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A33,L:L,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
@@ -3102,20 +3220,20 @@
         <v>-89.23999666666667</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A34,L:L,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="K35" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A35,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3141,11 +3259,11 @@
         <v>-54.470115</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A36,L:L,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>46</v>
       </c>
@@ -3171,20 +3289,20 @@
         <v>-89.23999666666667</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A37,L:L,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="K38" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A38,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -3206,20 +3324,20 @@
         <v>33</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A39,L:L,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="K40" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A40,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -3241,20 +3359,20 @@
         <v>33</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A41,L:L,0)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="K42" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>MATCH(A42,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -3270,195 +3388,857 @@
       <c r="E43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="9">
-        <v>1450</v>
-      </c>
-      <c r="I43" s="4"/>
+      <c r="G43" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="41">
+        <v>39</v>
+      </c>
+      <c r="I43" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="42">
+        <v>160</v>
+      </c>
       <c r="K43" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A43,L:L,0)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="8"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="B44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="43">
         <v>-54.470115</v>
       </c>
-      <c r="I44" s="4"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A44,L:L,0)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="39"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="B45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="43">
         <v>-89.23999666666667</v>
       </c>
-      <c r="I45" s="4"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="1">
-        <f t="shared" si="0"/>
+        <f>MATCH(A45,L:L,0)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="K46" s="1" t="e">
-        <f t="shared" si="0"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="41">
+        <v>1450</v>
+      </c>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="47">
+        <v>3.1739000000000001E-7</v>
+      </c>
+      <c r="I47" s="45"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="48">
+        <v>-9.2212889999999999E-5</v>
+      </c>
+      <c r="I48" s="46"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="48">
+        <v>3.0535920000000002E-4</v>
+      </c>
+      <c r="I49" s="46"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="48">
+        <v>-4.4488329999999999E-6</v>
+      </c>
+      <c r="I50" s="46"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="48">
+        <v>2.0078330000000001E-7</v>
+      </c>
+      <c r="I51" s="46"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="47">
+        <v>142.2525</v>
+      </c>
+      <c r="I52" s="46"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="47">
+        <v>-5.9933109999999998E-2</v>
+      </c>
+      <c r="I53" s="46"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="47">
+        <v>-1.5333129999999999E-6</v>
+      </c>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="47">
+        <v>524713.69999999995</v>
+      </c>
+      <c r="I55" s="46"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" s="47">
+        <v>-17.980219999999999</v>
+      </c>
+      <c r="I56" s="46"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="47">
+        <v>0.59002580000000004</v>
+      </c>
+      <c r="I57" s="46"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="47">
+        <v>25.34</v>
+      </c>
+      <c r="I58" s="46"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="47">
+        <v>0</v>
+      </c>
+      <c r="I59" s="46"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="6">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="47">
+        <v>0</v>
+      </c>
+      <c r="I60" s="46"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" s="48">
+        <v>-0.4597947</v>
+      </c>
+      <c r="I61" s="46"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="6">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="48">
+        <v>4.5183070000000001E-3</v>
+      </c>
+      <c r="I62" s="46"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="6">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="48">
+        <v>-2.805275E-11</v>
+      </c>
+      <c r="I63" s="46"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H64" s="47">
+        <v>-0.98640190000000005</v>
+      </c>
+      <c r="I64" s="46"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="6">
+        <v>2</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" s="47">
+        <v>0.1432224</v>
+      </c>
+      <c r="I65" s="46"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="47">
+        <v>-1.186624E-4</v>
+      </c>
+      <c r="I66" s="46"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" s="47">
+        <v>2.8622359999999999E-5</v>
+      </c>
+      <c r="I67" s="46"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="6">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" s="47">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+      <c r="I68" s="46"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="6">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69" s="47">
+        <v>3.2499999999999998E-6</v>
+      </c>
+      <c r="I69" s="46"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="K70" s="1" t="e">
+        <f>MATCH(A70,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="71" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="B71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F71" s="10">
         <v>14871</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="4"/>
-      <c r="K47" s="1">
-        <f t="shared" si="0"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="4"/>
+      <c r="K71" s="1">
+        <f>MATCH(A71,L:L,0)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="72" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="B72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F72" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
-      <c r="K48" s="1">
-        <f t="shared" si="0"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="4"/>
+      <c r="K72" s="1">
+        <f>MATCH(A72,L:L,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="B73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F73" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="4"/>
-      <c r="K49" s="1">
-        <f t="shared" si="0"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="4"/>
+      <c r="K73" s="1">
+        <f>MATCH(A73,L:L,0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="K50" s="1" t="e">
-        <f t="shared" si="0"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="K74" s="1" t="e">
+        <f>MATCH(A74,L:L,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
